--- a/src/test/resources/source/VyTrackQa2Users.xlsx
+++ b/src/test/resources/source/VyTrackQa2Users.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/HSN/IdeaProjects/CucumberProjectHsnAkd/src/test/resources/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9C2091-E13E-4345-A3BC-59E1109154A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A524EC80-D0DE-3F46-BD94-F8C3CF97D4AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16460" xr2:uid="{A6E492C3-BE5B-A943-A942-BB13276E148F}"/>
+    <workbookView xWindow="1820" yWindow="1220" windowWidth="27200" windowHeight="14860" activeTab="1" xr2:uid="{A6E492C3-BE5B-A943-A942-BB13276E148F}"/>
   </bookViews>
   <sheets>
     <sheet name="vyTrack" sheetId="1" r:id="rId1"/>
+    <sheet name="vyTrack1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="34">
   <si>
     <t>username</t>
   </si>
@@ -104,13 +105,37 @@
     <t>PASS</t>
   </si>
   <si>
+    <t>Roma</t>
+  </si>
+  <si>
+    <t>Medhurst</t>
+  </si>
+  <si>
+    <t>user3</t>
+  </si>
+  <si>
+    <t>user4</t>
+  </si>
+  <si>
+    <t>user5</t>
+  </si>
+  <si>
+    <t>user6</t>
+  </si>
+  <si>
+    <t>storemanager53</t>
+  </si>
+  <si>
+    <t>storemanager54</t>
+  </si>
+  <si>
+    <t>salesmanager103</t>
+  </si>
+  <si>
+    <t>salesmanager104</t>
+  </si>
+  <si>
     <t>FAIL</t>
-  </si>
-  <si>
-    <t>Roma</t>
-  </si>
-  <si>
-    <t>Medhurst</t>
   </si>
 </sst>
 </file>
@@ -465,7 +490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4059956-0189-034B-81E5-3CE9A12B0A1A}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
+    <sheetView zoomScale="200" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -551,10 +576,10 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
       </c>
       <c r="E5" t="s">
         <v>22</v>
@@ -592,6 +617,137 @@
       </c>
       <c r="E7" t="s">
         <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5752E369-8267-9A4E-A1DE-D3CD73E0D7A0}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.6640625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.83203125"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/source/VyTrackQa2Users.xlsx
+++ b/src/test/resources/source/VyTrackQa2Users.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="34">
   <si>
     <t>username</t>
   </si>

--- a/src/test/resources/source/VyTrackQa2Users.xlsx
+++ b/src/test/resources/source/VyTrackQa2Users.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="34">
   <si>
     <t>username</t>
   </si>
